--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteVencimiento.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteVencimiento.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E7451-14C4-4C00-82CC-77FD7C89D62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1668" windowWidth="28800" windowHeight="15456"/>
+    <workbookView xWindow="-19310" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">CASA DE EMPEÑOS </t>
   </si>
@@ -84,12 +85,15 @@
   </si>
   <si>
     <t>Usuario</t>
+  </si>
+  <si>
+    <t>N°</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -264,12 +268,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,50 +331,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,144 +613,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" ht="55.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="22" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="22" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+    <row r="8" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+    <row r="13" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="1.1000000000000001">
+    <row r="16" spans="1:4" ht="69" x14ac:dyDescent="0.85">
       <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -754,123 +760,123 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A22" s="24" t="s">
+    <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A23" s="32" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A25" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A28" s="19" t="s">
+    <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A28" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A30" s="19" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.95">
-      <c r="A33" s="17" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
+      <c r="A33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.95">
+    <row r="35" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -878,13 +884,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:D32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -894,14 +901,13 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteVencimiento.xlsx
+++ b/Empeño.WindowsForms/Empeños/Comprobantes/ComprobanteVencimiento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtjarquinm\Documents\GitHub-Donovan\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donov\Documents\GitHub Async\Empe-o\Empeño.WindowsForms\Empeños\Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E7451-14C4-4C00-82CC-77FD7C89D62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AAA9E-44E7-4B91-A4C2-818D89058BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -271,6 +271,54 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -278,9 +326,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -288,51 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +620,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,55 +631,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="65.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="10"/>
@@ -690,17 +690,17 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A10" s="2"/>
@@ -709,12 +709,12 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A12" s="6"/>
@@ -726,15 +726,15 @@
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A15" s="11" t="s">
@@ -749,8 +749,8 @@
         <v>3</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -761,44 +761,44 @@
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A24" s="4"/>
@@ -807,12 +807,12 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A26" s="3"/>
@@ -821,54 +821,54 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="59.25" x14ac:dyDescent="0.75">
       <c r="A34" s="3"/>
@@ -884,14 +884,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -901,13 +900,14 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A31:D32"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
